--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/44.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/44.xlsx
@@ -479,13 +479,13 @@
         <v>-18.53326178606167</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.16188123621997</v>
+        <v>-14.17600783098619</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5174497990526314</v>
+        <v>-0.5056405418893946</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.45944345409405</v>
+        <v>-10.47827018558045</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-17.97702889424138</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.36875271342208</v>
+        <v>-14.38147843178424</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.5094896789248621</v>
+        <v>-0.4960700685120928</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.21359619133212</v>
+        <v>-10.23116606174571</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-17.37903044883335</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.68459142717589</v>
+        <v>-14.69852163739948</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4310929695086063</v>
+        <v>-0.4187469279288586</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.789811440648284</v>
+        <v>-9.808926202797204</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-16.78905216865074</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.14237688833968</v>
+        <v>-15.15768179036166</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3722561605378894</v>
+        <v>-0.3581033811659835</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.57223045972164</v>
+        <v>-9.592170036949588</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-16.21616254495561</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.58665109297081</v>
+        <v>-15.60302956382581</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3553932744777462</v>
+        <v>-0.3419082025507684</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.381868376402942</v>
+        <v>-9.402632768709919</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-15.68017091742842</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.06021277905888</v>
+        <v>-16.07914424896802</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3757910823051554</v>
+        <v>-0.3582081195887173</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.240811905586186</v>
+        <v>-9.261419190259062</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-15.16748088231712</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.5633761618721</v>
+        <v>-16.5844940463558</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1570317941227545</v>
+        <v>-0.1412686615013164</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.038548918984359</v>
+        <v>-9.059064557537344</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-14.67241562930908</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.18406914729549</v>
+        <v>-17.20798878458733</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04229851664252485</v>
+        <v>0.06013023311295575</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.061879402648316</v>
+        <v>-9.082748533378027</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-14.19574353837562</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.60514379129108</v>
+        <v>-17.63068687413529</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1681286392543541</v>
+        <v>0.183760848847375</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.748253288074768</v>
+        <v>-8.768271419119767</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-13.72872532810447</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.1336276878002</v>
+        <v>-18.16116080067635</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2940111310775502</v>
+        <v>0.3096171560648877</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.670943239794376</v>
+        <v>-8.691746909009877</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-13.25428277159954</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.65476680241511</v>
+        <v>-18.68298071503903</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3748561011252087</v>
+        <v>0.3925045253558554</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.168997441145439</v>
+        <v>-8.190076048720618</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-12.75886166522331</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.41528558218813</v>
+        <v>-19.44488727891327</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5104007124455987</v>
+        <v>0.529358366960418</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.577081337368162</v>
+        <v>-7.600791497814528</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-12.25102804517666</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.24031013806234</v>
+        <v>-20.27009512702727</v>
       </c>
       <c r="F14" t="n">
-        <v>0.7491912239758405</v>
+        <v>0.7702960161567028</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.99810042879851</v>
+        <v>-7.025057480349624</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-11.72204496726821</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.03553661266878</v>
+        <v>-21.06605477059285</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8294208557899378</v>
+        <v>0.8513897399583541</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.449860247301231</v>
+        <v>-6.479645236266157</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-11.16399642409759</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.92435996029073</v>
+        <v>-21.95405330313576</v>
       </c>
       <c r="F16" t="n">
-        <v>1.074469488078525</v>
+        <v>1.097315556537337</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.952745508400892</v>
+        <v>-5.980383359699776</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-10.57796766738791</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.56428553858861</v>
+        <v>-22.59327189708019</v>
       </c>
       <c r="F17" t="n">
-        <v>1.251516699407186</v>
+        <v>1.274716260042725</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.830555045979063</v>
+        <v>-5.859135543082551</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.976638569552708</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.34467843407538</v>
+        <v>-23.37450269994883</v>
       </c>
       <c r="F18" t="n">
-        <v>1.572723257326094</v>
+        <v>1.598436540107244</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.43254903959059</v>
+        <v>-5.461050982877028</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-9.362184721024896</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.14291613833542</v>
+        <v>-24.17411509600725</v>
       </c>
       <c r="F19" t="n">
-        <v>1.823650333590615</v>
+        <v>1.849730200851334</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.180247271527687</v>
+        <v>-5.207413799924269</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.740085026836587</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.89451905987323</v>
+        <v>-24.92577038675643</v>
       </c>
       <c r="F20" t="n">
-        <v>2.047816742846649</v>
+        <v>2.073818056290317</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.941744790659963</v>
+        <v>-4.972223671675501</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.126953257003969</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.47372253759119</v>
+        <v>-25.50509169519996</v>
       </c>
       <c r="F21" t="n">
-        <v>2.40363934947908</v>
+        <v>2.428645647906777</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.688395638369722</v>
+        <v>-4.716845212444793</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.53878914302177</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.05017663171239</v>
+        <v>-26.08179454307515</v>
       </c>
       <c r="F22" t="n">
-        <v>2.694131364931298</v>
+        <v>2.716911971875902</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.398793899510742</v>
+        <v>-4.431014056804229</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.982322289803071</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.55157255364197</v>
+        <v>-26.58177649629783</v>
       </c>
       <c r="F23" t="n">
-        <v>2.890803938219707</v>
+        <v>2.913244145290426</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.246687525095568</v>
+        <v>-4.277677005921934</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-6.465782800493389</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.7669540276912</v>
+        <v>-26.79752455482663</v>
       </c>
       <c r="F24" t="n">
-        <v>3.017249399065097</v>
+        <v>3.039925267586967</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.067257514649713</v>
+        <v>-4.098705226075539</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.008106553238507</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.07176902245227</v>
+        <v>-27.10135762687457</v>
       </c>
       <c r="F25" t="n">
-        <v>3.324028239252423</v>
+        <v>3.34691358461976</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.813541777879903</v>
+        <v>-3.843942105078391</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-5.617997411244676</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.03977143430709</v>
+        <v>-27.06913746958108</v>
       </c>
       <c r="F26" t="n">
-        <v>3.402529687091412</v>
+        <v>3.427588354730476</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.773099654401811</v>
+        <v>-3.804652104250371</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.296908972329453</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.96979307561807</v>
+        <v>-26.99816409587608</v>
       </c>
       <c r="F27" t="n">
-        <v>3.414391313466016</v>
+        <v>3.437905089369756</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.7173395365989</v>
+        <v>-3.745527264617136</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.044834493673059</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.88309584620016</v>
+        <v>-26.91240951226278</v>
       </c>
       <c r="F28" t="n">
-        <v>3.478883997264359</v>
+        <v>3.500145897079322</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.716815844485231</v>
+        <v>-3.742804065626057</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-4.869664338798052</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.73944709942074</v>
+        <v>-26.76692784308552</v>
       </c>
       <c r="F29" t="n">
-        <v>3.490012454679826</v>
+        <v>3.51067210856407</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.643315656331781</v>
+        <v>-3.668086293308326</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-4.764434888952421</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.62419555750502</v>
+        <v>-26.65087767069646</v>
       </c>
       <c r="F30" t="n">
-        <v>3.463592187545223</v>
+        <v>3.482392734425941</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.602899717459372</v>
+        <v>-3.627513246801817</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-4.720000730449729</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.22053367628892</v>
+        <v>-26.24615531295018</v>
       </c>
       <c r="F31" t="n">
-        <v>3.358408626514795</v>
+        <v>3.37618797377386</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.792227508853573</v>
+        <v>-3.81427494683904</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-4.731020716192</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.88901038373074</v>
+        <v>-25.9134406208334</v>
       </c>
       <c r="F32" t="n">
-        <v>3.31088356719933</v>
+        <v>3.327641714836739</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.88223709089044</v>
+        <v>-3.904035775121914</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-4.794061583510577</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.47004360049266</v>
+        <v>-25.49446074529248</v>
       </c>
       <c r="F33" t="n">
-        <v>3.190617673295234</v>
+        <v>3.207061605664442</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.034291096094246</v>
+        <v>-4.050460090103778</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-4.895455548896985</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.01430053857218</v>
+        <v>-25.03791905289865</v>
       </c>
       <c r="F34" t="n">
-        <v>3.110466595298187</v>
+        <v>3.125601297383223</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.954428048759717</v>
+        <v>-3.967991674503745</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.026814033101362</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.65947294695572</v>
+        <v>-24.68172986178665</v>
       </c>
       <c r="F35" t="n">
-        <v>2.856449735563018</v>
+        <v>2.871977206733305</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.053602242785792</v>
+        <v>-4.064743792504101</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.18539688741238</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.96488700429362</v>
+        <v>-23.98728793445582</v>
       </c>
       <c r="F36" t="n">
-        <v>2.736576610744174</v>
+        <v>2.749564175163167</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.370056294773153</v>
+        <v>-4.379980260327181</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.36773442632389</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.53500124048555</v>
+        <v>-23.55613221727209</v>
       </c>
       <c r="F37" t="n">
-        <v>2.581406637464037</v>
+        <v>2.595048817025115</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.448034050498474</v>
+        <v>-4.455771601477934</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.563788552745553</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.16134691738269</v>
+        <v>-23.18140432533621</v>
       </c>
       <c r="F38" t="n">
-        <v>2.523931427988859</v>
+        <v>2.537180838464686</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.554461380298864</v>
+        <v>-4.563167761688613</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.772617899746939</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.68494420157796</v>
+        <v>-22.70439936360076</v>
       </c>
       <c r="F39" t="n">
-        <v>2.483895165898861</v>
+        <v>2.497458791642889</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.488161958708364</v>
+        <v>-4.495244894545738</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-5.997280944838612</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.32592707305215</v>
+        <v>-22.34475380453855</v>
       </c>
       <c r="F40" t="n">
-        <v>2.466246741668214</v>
+        <v>2.482585935614689</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.542508107804369</v>
+        <v>-4.547810490455268</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.2363635073665</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.81058784859612</v>
+        <v>-21.82902181099728</v>
       </c>
       <c r="F41" t="n">
-        <v>2.551058679476916</v>
+        <v>2.565643504842599</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.47379970249099</v>
+        <v>-4.479023531324839</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.485996563127317</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.19333813882011</v>
+        <v>-21.21025339409162</v>
       </c>
       <c r="F42" t="n">
-        <v>2.676797155968853</v>
+        <v>2.690570258558349</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.484849606089407</v>
+        <v>-4.490505480917033</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.749503211208837</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.54178659559877</v>
+        <v>-20.55840072790492</v>
       </c>
       <c r="F43" t="n">
-        <v>2.787505668798488</v>
+        <v>2.801488248233452</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.478460562302645</v>
+        <v>-4.485399482808759</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-7.03252923577356</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.28854218173126</v>
+        <v>-20.30422676053565</v>
       </c>
       <c r="F44" t="n">
-        <v>2.738147687085181</v>
+        <v>2.750978143870073</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.562382223518109</v>
+        <v>-4.568470144339511</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-7.330700664485022</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.85069629779542</v>
+        <v>-19.865124015527</v>
       </c>
       <c r="F45" t="n">
-        <v>2.814842397132013</v>
+        <v>2.828982084201077</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.546200137205735</v>
+        <v>-4.551371596828218</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-7.640434671648851</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.49795038233079</v>
+        <v>-19.51303271520446</v>
       </c>
       <c r="F46" t="n">
-        <v>2.856318812534601</v>
+        <v>2.87011809972978</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.650650529277026</v>
+        <v>-4.652483451674867</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-7.962704750184108</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.0169784528343</v>
+        <v>-19.03043734015559</v>
       </c>
       <c r="F47" t="n">
-        <v>2.888971015821866</v>
+        <v>2.902141872480642</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962679382903883</v>
+        <v>-4.963425644165862</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-8.297769334412042</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.56115683709676</v>
+        <v>-18.57411821691007</v>
       </c>
       <c r="F48" t="n">
-        <v>2.855192874490212</v>
+        <v>2.867394900738701</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089177212960641</v>
+        <v>-5.089635443560101</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-8.63367717432838</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.09016124236567</v>
+        <v>-18.10530903675355</v>
       </c>
       <c r="F49" t="n">
-        <v>2.88415304837611</v>
+        <v>2.896093228567765</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.341478981023544</v>
+        <v>-5.342879857427609</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-8.967488950142622</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.60310139204778</v>
+        <v>-17.61752910977936</v>
       </c>
       <c r="F50" t="n">
-        <v>2.935265398670209</v>
+        <v>2.949562193373374</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.434080839023072</v>
+        <v>-5.430886317129691</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-9.29883240254572</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.9127573555064</v>
+        <v>-16.92783968838007</v>
       </c>
       <c r="F51" t="n">
-        <v>2.912537160936973</v>
+        <v>2.927855155261792</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.651020297110473</v>
+        <v>-5.6477341290972</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-9.624584951767044</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.53706063316023</v>
+        <v>-16.55172401234297</v>
       </c>
       <c r="F52" t="n">
-        <v>2.793999451007985</v>
+        <v>2.807929661231581</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793726398085288</v>
+        <v>-5.794289367107481</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-9.932321899970425</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.11317114405367</v>
+        <v>-16.12871170752679</v>
       </c>
       <c r="F53" t="n">
-        <v>2.862917333166831</v>
+        <v>2.875983451402873</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852811960809997</v>
+        <v>-5.852641760873055</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-10.22126047877736</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.8369104617904</v>
+        <v>-15.85451960911253</v>
       </c>
       <c r="F54" t="n">
-        <v>2.620316961509647</v>
+        <v>2.63278083381497</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.087766427607613</v>
+        <v>-6.086090612843872</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-10.49474238835307</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.4990112177483</v>
+        <v>-15.51785104153754</v>
       </c>
       <c r="F55" t="n">
-        <v>2.458653206020013</v>
+        <v>2.471483662804905</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.302493286514762</v>
+        <v>-6.298932180141813</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-10.74816376430494</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.09160493791947</v>
+        <v>-15.11247406864918</v>
       </c>
       <c r="F56" t="n">
-        <v>2.403691718690447</v>
+        <v>2.416574544686706</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.498236306301409</v>
+        <v>-6.497647152673531</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-10.97418538392922</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.55152126109258</v>
+        <v>-14.57222019188535</v>
       </c>
       <c r="F57" t="n">
-        <v>2.35888985836606</v>
+        <v>2.373893637422678</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.765345468878304</v>
+        <v>-6.764507561496433</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-11.17385356982541</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.30102623082184</v>
+        <v>-14.32298202268741</v>
       </c>
       <c r="F58" t="n">
-        <v>2.180441770633334</v>
+        <v>2.195969241803621</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.721944484957982</v>
+        <v>-6.721604085084097</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-11.35349367069559</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.92492364708757</v>
+        <v>-13.94770425403217</v>
       </c>
       <c r="F59" t="n">
-        <v>2.230113967614843</v>
+        <v>2.247631468817072</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.859256557162005</v>
+        <v>-6.858209172934667</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-11.50733348990853</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.81155739678107</v>
+        <v>-13.83584361855247</v>
       </c>
       <c r="F60" t="n">
-        <v>2.04949255761039</v>
+        <v>2.066983874206936</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821354340435208</v>
+        <v>-6.821419801949417</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-11.63349632362492</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.48337264144752</v>
+        <v>-13.50723990952798</v>
       </c>
       <c r="F61" t="n">
-        <v>1.927734141182338</v>
+        <v>1.945434934624351</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.150350818544942</v>
+        <v>-7.152445586999619</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-11.73813544299611</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.18088807659228</v>
+        <v>-13.20725597451552</v>
       </c>
       <c r="F62" t="n">
-        <v>1.84826386293306</v>
+        <v>1.866828748362628</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.19311027962602</v>
+        <v>-7.192678233632243</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-11.8289041090534</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.85339721330934</v>
+        <v>-12.87998768038089</v>
       </c>
       <c r="F63" t="n">
-        <v>1.779895857493567</v>
+        <v>1.798356004500401</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.312433527725512</v>
+        <v>-7.314135527094936</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.89880581988479</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.60891155004295</v>
+        <v>-12.63699453963845</v>
       </c>
       <c r="F64" t="n">
-        <v>1.663740946681773</v>
+        <v>1.68290807804206</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.498933381705899</v>
+        <v>-7.49621018271482</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.95079130205113</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.39665913637289</v>
+        <v>-12.42533127959627</v>
       </c>
       <c r="F65" t="n">
-        <v>1.589559958780553</v>
+        <v>1.604354260991704</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730235096010674</v>
+        <v>-7.730536218976034</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.99343378149703</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.16030379317121</v>
+        <v>-12.1895127208111</v>
       </c>
       <c r="F66" t="n">
-        <v>1.520537338198974</v>
+        <v>1.535410194227174</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.852386281523978</v>
+        <v>-7.85065809754887</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.03031747052112</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.97947290632129</v>
+        <v>-12.0089698646237</v>
       </c>
       <c r="F67" t="n">
-        <v>1.567591074612137</v>
+        <v>1.588407836130481</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.815465987510311</v>
+        <v>-7.816735940885958</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.05425012356223</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.88845521696561</v>
+        <v>-11.91903883640388</v>
       </c>
       <c r="F68" t="n">
-        <v>1.431483494269553</v>
+        <v>1.448267826512646</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.830024628270309</v>
+        <v>-7.828296444295201</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-12.06602932223949</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.73950408753529</v>
+        <v>-11.77031027612187</v>
       </c>
       <c r="F69" t="n">
-        <v>1.317449536518119</v>
+        <v>1.338737620938765</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.902634539830522</v>
+        <v>-7.900893263552573</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.07497760649558</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.63805183281475</v>
+        <v>-11.67090042064464</v>
       </c>
       <c r="F70" t="n">
-        <v>1.365184072679052</v>
+        <v>1.385189111421209</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.844701099755884</v>
+        <v>-7.842095731490381</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.07768308938387</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.37098194714638</v>
+        <v>-11.40282242765746</v>
       </c>
       <c r="F71" t="n">
-        <v>1.303558603203047</v>
+        <v>1.324021872544665</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.702322306352113</v>
+        <v>-7.695828524142618</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.06749261225624</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.31503853710369</v>
+        <v>-11.34657789464941</v>
       </c>
       <c r="F72" t="n">
-        <v>1.355888537661426</v>
+        <v>1.375212776655814</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.704403982503948</v>
+        <v>-7.699559830452509</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.04517414806158</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.29170805343973</v>
+        <v>-11.31560150612588</v>
       </c>
       <c r="F73" t="n">
-        <v>1.329154055258622</v>
+        <v>1.348530663464376</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.589793963427478</v>
+        <v>-7.580995935917838</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.01908141220629</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.4871761348667</v>
+        <v>-11.5112397874898</v>
       </c>
       <c r="F74" t="n">
-        <v>1.376495822334303</v>
+        <v>1.395270184609338</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.474935190597015</v>
+        <v>-7.467812977851116</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-11.98223261842004</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.61572945646961</v>
+        <v>-11.63991093981828</v>
       </c>
       <c r="F75" t="n">
-        <v>1.308363478345961</v>
+        <v>1.327137840620996</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.344038346785438</v>
+        <v>-7.338447933472021</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.93140105868618</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.95411311571686</v>
+        <v>-11.9762129229137</v>
       </c>
       <c r="F76" t="n">
-        <v>1.33467900705783</v>
+        <v>1.35227506207711</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.150036603276742</v>
+        <v>-7.140453037596598</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.87229674387836</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.56708164246364</v>
+        <v>-12.58819952694734</v>
       </c>
       <c r="F77" t="n">
-        <v>1.308389662951644</v>
+        <v>1.32648322547891</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.977584790245525</v>
+        <v>-6.971025546521821</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.81185860735486</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.0971497076166</v>
+        <v>-13.11728566938717</v>
       </c>
       <c r="F78" t="n">
-        <v>1.336145344976104</v>
+        <v>1.354814968828405</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.839055133877221</v>
+        <v>-6.836515227125927</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.74196278281783</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.59273264708446</v>
+        <v>-13.61268531661525</v>
       </c>
       <c r="F79" t="n">
-        <v>1.395977168962792</v>
+        <v>1.414254023729841</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.662976752958848</v>
+        <v>-6.662518522359387</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.66405915370092</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.15102771716418</v>
+        <v>-14.17071854063814</v>
       </c>
       <c r="F80" t="n">
-        <v>1.383932250348404</v>
+        <v>1.399643013758475</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.397098266849075</v>
+        <v>-6.39440125246368</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.58669237399734</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.93550541113756</v>
+        <v>-14.95486892704048</v>
       </c>
       <c r="F81" t="n">
-        <v>1.445989765818185</v>
+        <v>1.462669359638544</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.280943356037281</v>
+        <v>-6.279751956478684</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.51235870193304</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.68997554699771</v>
+        <v>-15.7086713554557</v>
       </c>
       <c r="F82" t="n">
-        <v>1.479951199389623</v>
+        <v>1.495007347657608</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.19605286441153</v>
+        <v>-6.194455603464839</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.43428372997164</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.55861056363771</v>
+        <v>-16.57751584894116</v>
       </c>
       <c r="F83" t="n">
-        <v>1.435908692630056</v>
+        <v>1.451593271434444</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.936511052877152</v>
+        <v>-5.933971146125857</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.35150714881239</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.62946928997101</v>
+        <v>-17.64792943697785</v>
       </c>
       <c r="F84" t="n">
-        <v>1.520930107284225</v>
+        <v>1.534729394479404</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747641492082412</v>
+        <v>-5.747143984574426</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.27313822433426</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.44163720445465</v>
+        <v>-18.45977004389044</v>
       </c>
       <c r="F85" t="n">
-        <v>1.512105895168902</v>
+        <v>1.526821643563002</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.539408415384758</v>
+        <v>-5.540756922577456</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.19433315690277</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.52850781716338</v>
+        <v>-19.54823791754586</v>
       </c>
       <c r="F86" t="n">
-        <v>1.507811619836816</v>
+        <v>1.522344075991132</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242697556082721</v>
+        <v>-5.242959402139555</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.10760128085511</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.58779294778459</v>
+        <v>-20.60770634040686</v>
       </c>
       <c r="F87" t="n">
-        <v>1.532896472081563</v>
+        <v>1.542139637887822</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.971595241139099</v>
+        <v>-4.969500472684422</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.01082605478593</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.95033508912871</v>
+        <v>-21.96969860503162</v>
       </c>
       <c r="F88" t="n">
-        <v>1.584611068306381</v>
+        <v>1.594953987551345</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659893695083285</v>
+        <v>-4.659946064294652</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-10.90763651024638</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.41802151459473</v>
+        <v>-23.43510696980318</v>
       </c>
       <c r="F89" t="n">
-        <v>1.37722899129344</v>
+        <v>1.389509571358979</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.320724497665529</v>
+        <v>-4.319585467318299</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-10.78687980033595</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.90687819375582</v>
+        <v>-24.92345304915344</v>
       </c>
       <c r="F90" t="n">
-        <v>1.22916813845636</v>
+        <v>1.239694349941107</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.12663110803694</v>
+        <v>-4.127599938447228</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-10.63930768557369</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.56098591938517</v>
+        <v>-26.57728583642312</v>
       </c>
       <c r="F91" t="n">
-        <v>1.064506245615971</v>
+        <v>1.073985072873381</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.088257568407841</v>
+        <v>-4.087576768660071</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-10.46261373681063</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.26303765802092</v>
+        <v>-28.27648345303938</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9801656307095717</v>
+        <v>0.9886363506481685</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.84256741328001</v>
+        <v>-3.841245090692995</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-10.25545015424178</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.15672143335103</v>
+        <v>-30.16898892111372</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8572681839342892</v>
+        <v>0.8653199501819506</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.88489482836731</v>
+        <v>-3.882223998587598</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-10.00603147307332</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.29868763977162</v>
+        <v>-32.30926622046773</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7662374022757678</v>
+        <v>0.7737000148955516</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.922757768185582</v>
+        <v>-3.918934815755798</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.709828135748159</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.39119112605617</v>
+        <v>-34.40014626119991</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3550867238342024</v>
+        <v>0.3627326286937704</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.926777105157992</v>
+        <v>-3.922469737523064</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.369135930102217</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.41001113194749</v>
+        <v>-36.41769631371558</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07415208945644437</v>
+        <v>0.08330360914281089</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.103051870618992</v>
+        <v>-4.099713333394352</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.989806951380949</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.54454091035398</v>
+        <v>-38.5510085079578</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2525008664446211</v>
+        <v>-0.2448025923736861</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.190154961424995</v>
+        <v>-4.184420532780319</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.564044801976056</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.89055065656288</v>
+        <v>-40.8937582707591</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5160620149514085</v>
+        <v>-0.5069497721735672</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.396777684873116</v>
+        <v>-4.390886148594339</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-8.106832894772936</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31502257370224</v>
+        <v>-43.31702569603702</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.4326771381524552</v>
+        <v>-0.4236696337973476</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.716242966514073</v>
+        <v>-4.71060018398929</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.618594657012135</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79971908391353</v>
+        <v>-45.79962743779364</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.576352069537557</v>
+        <v>-0.5706438254985645</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.961265414196977</v>
+        <v>-4.953986093816978</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.134754405928142</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20279817820951</v>
+        <v>-48.20258870136404</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6034400441170883</v>
+        <v>-0.5953359086580599</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.319418450735236</v>
+        <v>-5.310005084992034</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-6.615911813949245</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49511639046449</v>
+        <v>-50.49290379128423</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7272932289998169</v>
+        <v>-0.7197782471686661</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.638111286508531</v>
+        <v>-5.629745304992668</v>
       </c>
     </row>
   </sheetData>
